--- a/biology/Médecine/Arthrose_de_hanche/Arthrose_de_hanche.xlsx
+++ b/biology/Médecine/Arthrose_de_hanche/Arthrose_de_hanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arthrose de hanche ou coxarthrose est une maladie fréquente, consistant en une lésion de l'articulation de la hanche, cartilage et os, d'origine mécanique.
 </t>
@@ -511,11 +523,13 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arthrose touche habituellement une ou deux articulations importantes, habituellement « portantes » au niveau des membres inférieurs, genou(x), hanche(s).
 La cause de la coxarthrose primitive est inconnue. Certaines formes, dites secondaires, sont liées à des malformations congénitales de hanche (luxation congénitale, coxa plana).
-La coxarthrose apparaît comme un processus de « contraintes excessives et d'usure ». Elle est notamment aggravée par les problèmes de surpoids. L'atteinte est très fréquente puisque le risque d'être atteint avant l'âge de 85 ans avoisine les 25 %[1].
+La coxarthrose apparaît comme un processus de « contraintes excessives et d'usure ». Elle est notamment aggravée par les problèmes de surpoids. L'atteinte est très fréquente puisque le risque d'être atteint avant l'âge de 85 ans avoisine les 25 %.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Douleur typiquement « mécanique » (survenant à la mobilisation de l'articulation)
 Boiterie
@@ -576,7 +592,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il repose sur la radiographie de la hanche :
 densification de l'os sous-chondral,
@@ -610,7 +628,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'abord médical :
 antalgiques,
